--- a/Team-Data/2007-08/11-8-2007-08.xlsx
+++ b/Team-Data/2007-08/11-8-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>2.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -762,13 +829,13 @@
         <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK2" t="n">
         <v>19</v>
       </c>
       <c r="AL2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM2" t="n">
         <v>24</v>
@@ -777,7 +844,7 @@
         <v>23</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP2" t="n">
         <v>12</v>
@@ -798,13 +865,13 @@
         <v>26</v>
       </c>
       <c r="AV2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW2" t="n">
         <v>3</v>
       </c>
       <c r="AX2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY2" t="n">
         <v>30</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -926,10 +993,10 @@
         <v>16.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF3" t="n">
         <v>1</v>
@@ -950,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="AL3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM3" t="n">
         <v>5</v>
@@ -989,16 +1056,16 @@
         <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA3" t="n">
         <v>16</v>
       </c>
       <c r="BB3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-14.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
         <v>13</v>
@@ -1126,10 +1193,10 @@
         <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL4" t="n">
         <v>27</v>
@@ -1150,7 +1217,7 @@
         <v>29</v>
       </c>
       <c r="AR4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS4" t="n">
         <v>28</v>
@@ -1174,10 +1241,10 @@
         <v>17</v>
       </c>
       <c r="AZ4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -1212,100 +1279,100 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>49</v>
+        <v>49.3</v>
       </c>
       <c r="I5" t="n">
-        <v>33.4</v>
+        <v>32</v>
       </c>
       <c r="J5" t="n">
-        <v>85.59999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.39</v>
+        <v>0.373</v>
       </c>
       <c r="L5" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>17.2</v>
+        <v>19.3</v>
       </c>
       <c r="N5" t="n">
-        <v>0.267</v>
+        <v>0.286</v>
       </c>
       <c r="O5" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P5" t="n">
-        <v>24.6</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="R5" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="S5" t="n">
-        <v>29.2</v>
+        <v>28.5</v>
       </c>
       <c r="T5" t="n">
-        <v>43.4</v>
+        <v>42.5</v>
       </c>
       <c r="U5" t="n">
-        <v>20.8</v>
+        <v>19</v>
       </c>
       <c r="V5" t="n">
-        <v>16</v>
+        <v>16.3</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="X5" t="n">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.8</v>
+        <v>24.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>89.59999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-5.6</v>
+        <v>-8</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AF5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG5" t="n">
         <v>25</v>
       </c>
       <c r="AH5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
@@ -1314,58 +1381,58 @@
         <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AM5" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AN5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO5" t="n">
         <v>18</v>
       </c>
       <c r="AP5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AR5" t="n">
         <v>5</v>
       </c>
       <c r="AS5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AT5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AU5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AV5" t="n">
         <v>17</v>
       </c>
-      <c r="AV5" t="n">
-        <v>16</v>
-      </c>
       <c r="AW5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AX5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BA5" t="n">
         <v>7</v>
       </c>
       <c r="BB5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1554,7 @@
         <v>7</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ6" t="n">
         <v>10</v>
@@ -1496,7 +1563,7 @@
         <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM6" t="n">
         <v>14</v>
@@ -1508,10 +1575,10 @@
         <v>24</v>
       </c>
       <c r="AP6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR6" t="n">
         <v>8</v>
@@ -1523,16 +1590,16 @@
         <v>6</v>
       </c>
       <c r="AU6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV6" t="n">
         <v>18</v>
       </c>
       <c r="AW6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY6" t="n">
         <v>21</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -1576,118 +1643,118 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="H7" t="n">
         <v>48</v>
       </c>
       <c r="I7" t="n">
-        <v>38.2</v>
+        <v>37.3</v>
       </c>
       <c r="J7" t="n">
-        <v>75.8</v>
+        <v>73.8</v>
       </c>
       <c r="K7" t="n">
-        <v>0.504</v>
+        <v>0.505</v>
       </c>
       <c r="L7" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>19.6</v>
+        <v>18.5</v>
       </c>
       <c r="N7" t="n">
-        <v>0.388</v>
+        <v>0.378</v>
       </c>
       <c r="O7" t="n">
-        <v>23.2</v>
+        <v>22.5</v>
       </c>
       <c r="P7" t="n">
-        <v>26.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.879</v>
+        <v>0.882</v>
       </c>
       <c r="R7" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="S7" t="n">
-        <v>32</v>
+        <v>30.3</v>
       </c>
       <c r="T7" t="n">
-        <v>39.4</v>
+        <v>37</v>
       </c>
       <c r="U7" t="n">
-        <v>22.8</v>
+        <v>22.3</v>
       </c>
       <c r="V7" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W7" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="X7" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.6</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="AB7" t="n">
-        <v>107.2</v>
+        <v>104</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.199999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AF7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AH7" t="n">
         <v>7</v>
       </c>
       <c r="AI7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AJ7" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AM7" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AN7" t="n">
         <v>11</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP7" t="n">
         <v>17</v>
@@ -1699,19 +1766,19 @@
         <v>30</v>
       </c>
       <c r="AS7" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AT7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AX7" t="n">
         <v>2</v>
@@ -1720,16 +1787,16 @@
         <v>2</v>
       </c>
       <c r="AZ7" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="BA7" t="n">
         <v>17</v>
       </c>
       <c r="BB7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1927,7 @@
         <v>13</v>
       </c>
       <c r="AL8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM8" t="n">
         <v>14</v>
@@ -1869,7 +1936,7 @@
         <v>22</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP8" t="n">
         <v>6</v>
@@ -1878,7 +1945,7 @@
         <v>22</v>
       </c>
       <c r="AR8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS8" t="n">
         <v>9</v>
@@ -1887,25 +1954,25 @@
         <v>12</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA8" t="n">
         <v>11</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>14</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>12</v>
       </c>
       <c r="BB8" t="n">
         <v>12</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -1940,103 +2007,103 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>1</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.75</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>35.8</v>
+        <v>37</v>
       </c>
       <c r="J9" t="n">
-        <v>76.5</v>
+        <v>78</v>
       </c>
       <c r="K9" t="n">
-        <v>0.467</v>
+        <v>0.474</v>
       </c>
       <c r="L9" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M9" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="N9" t="n">
-        <v>0.348</v>
+        <v>0.354</v>
       </c>
       <c r="O9" t="n">
-        <v>20.8</v>
+        <v>20</v>
       </c>
       <c r="P9" t="n">
-        <v>27.8</v>
+        <v>27</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.748</v>
+        <v>0.741</v>
       </c>
       <c r="R9" t="n">
-        <v>10.3</v>
+        <v>11.3</v>
       </c>
       <c r="S9" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="T9" t="n">
-        <v>39.8</v>
+        <v>41</v>
       </c>
       <c r="U9" t="n">
-        <v>21</v>
+        <v>22.3</v>
       </c>
       <c r="V9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W9" t="n">
-        <v>8.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="X9" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE9" t="n">
         <v>6</v>
       </c>
-      <c r="Y9" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>98</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>8</v>
-      </c>
       <c r="AF9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG9" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AH9" t="n">
         <v>7</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AJ9" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AK9" t="n">
         <v>6</v>
@@ -2048,43 +2115,43 @@
         <v>19</v>
       </c>
       <c r="AN9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR9" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AS9" t="n">
         <v>23</v>
       </c>
       <c r="AT9" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AU9" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW9" t="n">
         <v>6</v>
       </c>
-      <c r="AW9" t="n">
-        <v>12</v>
-      </c>
       <c r="AX9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AY9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AZ9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BA9" t="n">
         <v>25</v>
@@ -2093,7 +2160,7 @@
         <v>15</v>
       </c>
       <c r="BC9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -2122,13 +2189,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -2137,112 +2204,112 @@
         <v>48</v>
       </c>
       <c r="I10" t="n">
-        <v>39.8</v>
+        <v>38.8</v>
       </c>
       <c r="J10" t="n">
-        <v>86</v>
+        <v>85.3</v>
       </c>
       <c r="K10" t="n">
-        <v>0.463</v>
+        <v>0.455</v>
       </c>
       <c r="L10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M10" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.344</v>
+        <v>0.321</v>
       </c>
       <c r="O10" t="n">
-        <v>19.2</v>
+        <v>20</v>
       </c>
       <c r="P10" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.671</v>
+        <v>0.708</v>
       </c>
       <c r="R10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="S10" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="T10" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="U10" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="V10" t="n">
-        <v>14</v>
+        <v>15.8</v>
       </c>
       <c r="W10" t="n">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="X10" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y10" t="n">
         <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="AA10" t="n">
-        <v>24</v>
+        <v>22.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>107.8</v>
+        <v>106</v>
       </c>
       <c r="AC10" t="n">
-        <v>-11.8</v>
+        <v>-13.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH10" t="n">
         <v>7</v>
       </c>
       <c r="AI10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AK10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL10" t="n">
         <v>7</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>5</v>
       </c>
       <c r="AM10" t="n">
         <v>2</v>
       </c>
       <c r="AN10" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO10" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
       </c>
       <c r="AQ10" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AR10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AS10" t="n">
         <v>29</v>
@@ -2251,16 +2318,16 @@
         <v>29</v>
       </c>
       <c r="AU10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX10" t="n">
         <v>11</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>10</v>
       </c>
       <c r="AY10" t="n">
         <v>13</v>
@@ -2269,13 +2336,13 @@
         <v>20</v>
       </c>
       <c r="BA10" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BB10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -2388,16 +2455,16 @@
         <v>1</v>
       </c>
       <c r="AF11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH11" t="n">
         <v>7</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ11" t="n">
         <v>9</v>
@@ -2406,7 +2473,7 @@
         <v>24</v>
       </c>
       <c r="AL11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM11" t="n">
         <v>8</v>
@@ -2421,7 +2488,7 @@
         <v>22</v>
       </c>
       <c r="AQ11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR11" t="n">
         <v>4</v>
@@ -2433,13 +2500,13 @@
         <v>7</v>
       </c>
       <c r="AU11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX11" t="n">
         <v>14</v>
@@ -2448,7 +2515,7 @@
         <v>21</v>
       </c>
       <c r="AZ11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA11" t="n">
         <v>22</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -2564,31 +2631,31 @@
         <v>1.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG12" t="n">
         <v>8</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AH12" t="n">
         <v>3</v>
       </c>
-      <c r="AG12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>2</v>
-      </c>
       <c r="AI12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK12" t="n">
         <v>23</v>
       </c>
       <c r="AL12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM12" t="n">
         <v>9</v>
@@ -2597,10 +2664,10 @@
         <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AQ12" t="n">
         <v>6</v>
@@ -2618,13 +2685,13 @@
         <v>13</v>
       </c>
       <c r="AV12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY12" t="n">
         <v>13</v>
@@ -2633,10 +2700,10 @@
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC12" t="n">
         <v>16</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>10.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2761,7 +2828,7 @@
         <v>7</v>
       </c>
       <c r="AI13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ13" t="n">
         <v>8</v>
@@ -2773,7 +2840,7 @@
         <v>9</v>
       </c>
       <c r="AM13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN13" t="n">
         <v>3</v>
@@ -2782,7 +2849,7 @@
         <v>3</v>
       </c>
       <c r="AP13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ13" t="n">
         <v>9</v>
@@ -2794,16 +2861,16 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU13" t="n">
         <v>6</v>
       </c>
       <c r="AV13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX13" t="n">
         <v>17</v>
@@ -2812,16 +2879,16 @@
         <v>27</v>
       </c>
       <c r="AZ13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB13" t="n">
         <v>2</v>
       </c>
       <c r="BC13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>3.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
         <v>13</v>
@@ -2949,19 +3016,19 @@
         <v>14</v>
       </c>
       <c r="AK14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM14" t="n">
         <v>23</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP14" t="n">
         <v>13</v>
@@ -2994,10 +3061,10 @@
         <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-2</v>
       </c>
       <c r="AD15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE15" t="n">
         <v>22</v>
@@ -3149,10 +3216,10 @@
         <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AS15" t="n">
         <v>11</v>
@@ -3161,7 +3228,7 @@
         <v>12</v>
       </c>
       <c r="AU15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV15" t="n">
         <v>28</v>
@@ -3173,7 +3240,7 @@
         <v>20</v>
       </c>
       <c r="AY15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ15" t="n">
         <v>9</v>
@@ -3182,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="BB15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC15" t="n">
         <v>18</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -3292,22 +3359,22 @@
         <v>-6.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ16" t="n">
         <v>20</v>
@@ -3316,7 +3383,7 @@
         <v>26</v>
       </c>
       <c r="AL16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM16" t="n">
         <v>26</v>
@@ -3334,7 +3401,7 @@
         <v>30</v>
       </c>
       <c r="AR16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS16" t="n">
         <v>17</v>
@@ -3343,13 +3410,13 @@
         <v>19</v>
       </c>
       <c r="AU16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX16" t="n">
         <v>17</v>
@@ -3367,7 +3434,7 @@
         <v>30</v>
       </c>
       <c r="BC16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>2.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
         <v>13</v>
@@ -3489,7 +3556,7 @@
         <v>7</v>
       </c>
       <c r="AI17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
         <v>16</v>
@@ -3498,13 +3565,13 @@
         <v>15</v>
       </c>
       <c r="AL17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM17" t="n">
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO17" t="n">
         <v>27</v>
@@ -3525,7 +3592,7 @@
         <v>7</v>
       </c>
       <c r="AU17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV17" t="n">
         <v>18</v>
@@ -3534,16 +3601,16 @@
         <v>25</v>
       </c>
       <c r="AX17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ17" t="n">
         <v>25</v>
       </c>
       <c r="BA17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB17" t="n">
         <v>24</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -3656,22 +3723,22 @@
         <v>-6.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF18" t="n">
         <v>20</v>
       </c>
       <c r="AG18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH18" t="n">
         <v>7</v>
       </c>
       <c r="AI18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ18" t="n">
         <v>6</v>
@@ -3680,10 +3747,10 @@
         <v>17</v>
       </c>
       <c r="AL18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN18" t="n">
         <v>6</v>
@@ -3695,7 +3762,7 @@
         <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR18" t="n">
         <v>13</v>
@@ -3707,13 +3774,13 @@
         <v>22</v>
       </c>
       <c r="AU18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX18" t="n">
         <v>23</v>
@@ -3731,7 +3798,7 @@
         <v>18</v>
       </c>
       <c r="BC18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -3760,97 +3827,97 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="H19" t="n">
-        <v>49</v>
+        <v>49.3</v>
       </c>
       <c r="I19" t="n">
-        <v>30.6</v>
+        <v>31.3</v>
       </c>
       <c r="J19" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K19" t="n">
-        <v>0.403</v>
+        <v>0.406</v>
       </c>
       <c r="L19" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="M19" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="N19" t="n">
-        <v>0.31</v>
+        <v>0.346</v>
       </c>
       <c r="O19" t="n">
-        <v>22.2</v>
+        <v>21</v>
       </c>
       <c r="P19" t="n">
-        <v>27.2</v>
+        <v>26</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="R19" t="n">
-        <v>10.8</v>
+        <v>11.5</v>
       </c>
       <c r="S19" t="n">
-        <v>31.8</v>
+        <v>32</v>
       </c>
       <c r="T19" t="n">
-        <v>42.6</v>
+        <v>43.5</v>
       </c>
       <c r="U19" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="V19" t="n">
-        <v>17.8</v>
+        <v>18.3</v>
       </c>
       <c r="W19" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="Y19" t="n">
         <v>4.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="AA19" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>89.59999999999999</v>
+        <v>90.3</v>
       </c>
       <c r="AC19" t="n">
-        <v>-3.2</v>
+        <v>-4.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AE19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AF19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH19" t="n">
         <v>3</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>4</v>
       </c>
       <c r="AI19" t="n">
         <v>29</v>
@@ -3859,55 +3926,55 @@
         <v>26</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AO19" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AP19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
         <v>5</v>
       </c>
       <c r="AR19" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AS19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AT19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU19" t="n">
         <v>5</v>
       </c>
       <c r="AV19" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX19" t="n">
         <v>8</v>
       </c>
       <c r="AY19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ19" t="n">
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB19" t="n">
         <v>27</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -4026,10 +4093,10 @@
         <v>1</v>
       </c>
       <c r="AF20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH20" t="n">
         <v>7</v>
@@ -4041,7 +4108,7 @@
         <v>12</v>
       </c>
       <c r="AK20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL20" t="n">
         <v>3</v>
@@ -4062,7 +4129,7 @@
         <v>4</v>
       </c>
       <c r="AR20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AS20" t="n">
         <v>4</v>
@@ -4071,10 +4138,10 @@
         <v>7</v>
       </c>
       <c r="AU20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW20" t="n">
         <v>18</v>
@@ -4083,7 +4150,7 @@
         <v>14</v>
       </c>
       <c r="AY20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ20" t="n">
         <v>8</v>
@@ -4095,7 +4162,7 @@
         <v>10</v>
       </c>
       <c r="BC20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -4202,13 +4269,13 @@
         <v>2.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE21" t="n">
         <v>13</v>
       </c>
       <c r="AF21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG21" t="n">
         <v>11</v>
@@ -4226,7 +4293,7 @@
         <v>5</v>
       </c>
       <c r="AL21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM21" t="n">
         <v>25</v>
@@ -4235,7 +4302,7 @@
         <v>2</v>
       </c>
       <c r="AO21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP21" t="n">
         <v>7</v>
@@ -4247,16 +4314,16 @@
         <v>6</v>
       </c>
       <c r="AS21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT21" t="n">
         <v>19</v>
       </c>
       <c r="AU21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW21" t="n">
         <v>26</v>
@@ -4274,7 +4341,7 @@
         <v>3</v>
       </c>
       <c r="BB21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC21" t="n">
         <v>15</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -4390,10 +4457,10 @@
         <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH22" t="n">
         <v>7</v>
@@ -4402,7 +4469,7 @@
         <v>24</v>
       </c>
       <c r="AJ22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK22" t="n">
         <v>12</v>
@@ -4417,13 +4484,13 @@
         <v>5</v>
       </c>
       <c r="AO22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP22" t="n">
         <v>5</v>
       </c>
       <c r="AQ22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR22" t="n">
         <v>27</v>
@@ -4435,22 +4502,22 @@
         <v>16</v>
       </c>
       <c r="AU22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV22" t="n">
         <v>2</v>
       </c>
       <c r="AW22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX22" t="n">
         <v>22</v>
       </c>
       <c r="AY22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ22" t="n">
         <v>7</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>6</v>
       </c>
       <c r="BA22" t="n">
         <v>6</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>7</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
         <v>13</v>
@@ -4590,7 +4657,7 @@
         <v>22</v>
       </c>
       <c r="AL23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM23" t="n">
         <v>26</v>
@@ -4605,7 +4672,7 @@
         <v>8</v>
       </c>
       <c r="AQ23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR23" t="n">
         <v>3</v>
@@ -4614,28 +4681,28 @@
         <v>13</v>
       </c>
       <c r="AT23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU23" t="n">
         <v>25</v>
       </c>
       <c r="AV23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW23" t="n">
         <v>3</v>
       </c>
       <c r="AX23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY23" t="n">
         <v>10</v>
       </c>
       <c r="AZ23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB23" t="n">
         <v>23</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -4751,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF24" t="n">
         <v>12</v>
@@ -4766,10 +4833,10 @@
         <v>5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL24" t="n">
         <v>5</v>
@@ -4787,22 +4854,22 @@
         <v>24</v>
       </c>
       <c r="AQ24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AT24" t="n">
         <v>24</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>20</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>23</v>
       </c>
       <c r="AU24" t="n">
         <v>4</v>
       </c>
       <c r="AV24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW24" t="n">
         <v>6</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD25" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
         <v>22</v>
@@ -4945,7 +5012,7 @@
         <v>7</v>
       </c>
       <c r="AI25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ25" t="n">
         <v>18</v>
@@ -4954,7 +5021,7 @@
         <v>14</v>
       </c>
       <c r="AL25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM25" t="n">
         <v>28</v>
@@ -4978,13 +5045,13 @@
         <v>22</v>
       </c>
       <c r="AT25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU25" t="n">
         <v>26</v>
       </c>
       <c r="AV25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW25" t="n">
         <v>30</v>
@@ -4996,13 +5063,13 @@
         <v>1</v>
       </c>
       <c r="AZ25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA25" t="n">
         <v>26</v>
       </c>
       <c r="BB25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC25" t="n">
         <v>25</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-11.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>22</v>
@@ -5130,7 +5197,7 @@
         <v>25</v>
       </c>
       <c r="AJ26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK26" t="n">
         <v>18</v>
@@ -5142,13 +5209,13 @@
         <v>30</v>
       </c>
       <c r="AN26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO26" t="n">
         <v>5</v>
       </c>
       <c r="AP26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
@@ -5169,7 +5236,7 @@
         <v>16</v>
       </c>
       <c r="AW26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX26" t="n">
         <v>29</v>
@@ -5187,7 +5254,7 @@
         <v>22</v>
       </c>
       <c r="BC26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -5300,10 +5367,10 @@
         <v>1</v>
       </c>
       <c r="AF27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH27" t="n">
         <v>7</v>
@@ -5312,7 +5379,7 @@
         <v>20</v>
       </c>
       <c r="AJ27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK27" t="n">
         <v>10</v>
@@ -5342,10 +5409,10 @@
         <v>14</v>
       </c>
       <c r="AT27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV27" t="n">
         <v>3</v>
@@ -5357,10 +5424,10 @@
         <v>13</v>
       </c>
       <c r="AY27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -5479,22 +5546,22 @@
         <v>1</v>
       </c>
       <c r="AE28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH28" t="n">
         <v>7</v>
       </c>
       <c r="AI28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK28" t="n">
         <v>16</v>
@@ -5524,10 +5591,10 @@
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV28" t="n">
         <v>29</v>
@@ -5542,7 +5609,7 @@
         <v>16</v>
       </c>
       <c r="AZ28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA28" t="n">
         <v>27</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -5670,10 +5737,10 @@
         <v>19</v>
       </c>
       <c r="AH29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="n">
         <v>10</v>
@@ -5700,16 +5767,16 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT29" t="n">
         <v>27</v>
       </c>
-      <c r="AT29" t="n">
-        <v>28</v>
-      </c>
       <c r="AU29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV29" t="n">
         <v>1</v>
@@ -5721,10 +5788,10 @@
         <v>27</v>
       </c>
       <c r="AY29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF30" t="n">
         <v>12</v>
@@ -5864,7 +5931,7 @@
         <v>4</v>
       </c>
       <c r="AL30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM30" t="n">
         <v>29</v>
@@ -5885,7 +5952,7 @@
         <v>11</v>
       </c>
       <c r="AS30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT30" t="n">
         <v>16</v>
@@ -5894,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW30" t="n">
         <v>6</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
@@ -5944,103 +6011,103 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>49.3</v>
+        <v>49.7</v>
       </c>
       <c r="I31" t="n">
-        <v>31</v>
+        <v>31.7</v>
       </c>
       <c r="J31" t="n">
-        <v>85.3</v>
+        <v>89.3</v>
       </c>
       <c r="K31" t="n">
-        <v>0.364</v>
+        <v>0.354</v>
       </c>
       <c r="L31" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>19.3</v>
+        <v>19.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.221</v>
+        <v>0.203</v>
       </c>
       <c r="O31" t="n">
-        <v>23.8</v>
+        <v>24.3</v>
       </c>
       <c r="P31" t="n">
-        <v>31.5</v>
+        <v>33.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.754</v>
+        <v>0.73</v>
       </c>
       <c r="R31" t="n">
-        <v>15.8</v>
+        <v>18.3</v>
       </c>
       <c r="S31" t="n">
-        <v>31.3</v>
+        <v>32</v>
       </c>
       <c r="T31" t="n">
-        <v>47</v>
+        <v>50.3</v>
       </c>
       <c r="U31" t="n">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="V31" t="n">
-        <v>17</v>
+        <v>17.7</v>
       </c>
       <c r="W31" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="X31" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="Y31" t="n">
         <v>5.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="AA31" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>90</v>
+        <v>91.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>-10.8</v>
+        <v>-13.7</v>
       </c>
       <c r="AD31" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF31" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AG31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI31" t="n">
         <v>28</v>
       </c>
       <c r="AJ31" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
@@ -6049,7 +6116,7 @@
         <v>28</v>
       </c>
       <c r="AM31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN31" t="n">
         <v>30</v>
@@ -6058,46 +6125,46 @@
         <v>4</v>
       </c>
       <c r="AP31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ31" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AR31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AT31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AU31" t="n">
         <v>30</v>
       </c>
       <c r="AV31" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AW31" t="n">
+        <v>24</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY31" t="n">
         <v>20</v>
       </c>
-      <c r="AX31" t="n">
-        <v>9</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>17</v>
-      </c>
       <c r="AZ31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BA31" t="n">
         <v>4</v>
       </c>
       <c r="BB31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC31" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-8-2007-08</t>
+          <t>2007-11-08</t>
         </is>
       </c>
     </row>
